--- a/src/utils/sxsyzlzq/friends/laowang/zz_lw_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/laowang/zz_lw_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12090" windowHeight="11730" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="13065" windowHeight="11295" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="6" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
-    <t>无畏猎户</t>
-  </si>
-  <si>
     <t>活力仙人掌</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
     <t>旷野游侠·大羽</t>
   </si>
   <si>
+    <t>鸵鸟王·霍利</t>
+  </si>
+  <si>
     <t>比尔&amp;比利</t>
   </si>
   <si>
@@ -98,12 +98,12 @@
     <t>蛮石卡等：</t>
   </si>
   <si>
+    <t>邪眼魔</t>
+  </si>
+  <si>
     <t>毒液甲虫</t>
   </si>
   <si>
-    <t>无面狂奔者</t>
-  </si>
-  <si>
     <t>疯狂战意</t>
   </si>
   <si>
@@ -113,15 +113,15 @@
     <t>恶臭公害</t>
   </si>
   <si>
+    <t>碎颅魔</t>
+  </si>
+  <si>
     <t>觅食大嘴兽</t>
   </si>
   <si>
     <t>铸甲熔岩魔</t>
   </si>
   <si>
-    <t>破卵而出</t>
-  </si>
-  <si>
     <t>嗜血破面</t>
   </si>
   <si>
@@ -149,9 +149,6 @@
     <t>巴克&amp;巴罗</t>
   </si>
   <si>
-    <t>熔岩进击</t>
-  </si>
-  <si>
     <t>怨魂饕餮兽</t>
   </si>
   <si>
@@ -215,10 +212,13 @@
     <t>破魔系教授</t>
   </si>
   <si>
+    <t>克隆术</t>
+  </si>
+  <si>
     <t>幻域秘树</t>
   </si>
   <si>
-    <t>心灵操控（</t>
+    <t>米拉方舟</t>
   </si>
   <si>
     <t>No.2时光·米拉</t>
@@ -1196,8 +1196,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1248,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C4)</f>
-        <v>19.3333333333333</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1279,7 +1279,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
         <v>20</v>
@@ -1293,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1312,15 +1312,15 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -1334,7 +1334,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -1352,15 +1352,9 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2"/>
@@ -1368,20 +1362,26 @@
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE(C10:C16)</f>
+        <v>19.7142857142857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2">
-        <f>AVERAGE(C10:C17)</f>
-        <v>19.75</v>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1446,8 +1446,8 @@
         <v>19</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C23:C26)</f>
-        <v>18</v>
+        <f>AVERAGE(C22:C26)</f>
+        <v>17.4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1458,8 +1458,8 @@
         <v>21</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C4,C10:C17,C23:C26)</f>
-        <v>19.2</v>
+        <f>AVERAGE(C2:C4,C10:C16,C22:C26)</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1471,10 +1471,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1503,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1511,10 +1511,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -1589,7 +1589,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -1603,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1687,11 +1687,11 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C12:C20)</f>
-        <v>18.4444444444444</v>
+        <v>19.2222222222222</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1724,7 +1724,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1732,10 +1732,10 @@
         <v>39</v>
       </c>
       <c r="B29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1743,7 +1743,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="3">
         <v>18</v>
@@ -1754,22 +1754,16 @@
         <v>41</v>
       </c>
       <c r="B31" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="3">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3">
-        <v>12</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3"/>
@@ -1777,32 +1771,27 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
+      <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="3">
-        <f>AVERAGE(C26:C32)</f>
-        <v>16.2857142857143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="4">
-        <f>AVERAGE(C2:C6,C12:C20,C26:C32)</f>
-        <v>17.952380952381</v>
+      <c r="C34" s="3">
+        <f>AVERAGE(C26:C31)</f>
+        <v>17.3333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="4">
+        <f>AVERAGE(C2:C6,C12:C20,C26:C31)</f>
+        <v>18.75</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1805,7 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="C21 E18"/>
     </sheetView>
   </sheetViews>
@@ -1840,7 +1829,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1851,7 +1840,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1862,7 +1851,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1873,7 +1862,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1884,7 +1873,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1895,7 +1884,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1906,7 +1895,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1917,7 +1906,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -1928,7 +1917,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1939,7 +1928,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1950,7 +1939,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
@@ -1984,7 +1973,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -1995,7 +1984,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -2006,7 +1995,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -2030,7 +2019,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C18:C20)</f>
@@ -2039,7 +2028,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2075,7 +2064,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C12,C18:C20,C26:C26)</f>
@@ -2091,10 +2080,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2117,7 +2106,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2128,7 +2117,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2139,7 +2128,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -2173,7 +2162,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -2184,30 +2173,36 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2"/>
@@ -2215,54 +2210,54 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
-        <f>AVERAGE(C10:C12)</f>
-        <v>15.3333333333333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="3">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>16</v>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <f>AVERAGE(C10:C13)</f>
+        <v>15.75</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>9</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3"/>
@@ -2270,34 +2265,39 @@
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="3">
-        <f>AVERAGE(C18:C20)</f>
+      <c r="C24" s="3">
+        <f>AVERAGE(C19:C21)</f>
         <v>14.6666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="4">
-        <f>AVERAGE(C2:C4,C10:C12,C18:C20)</f>
-        <v>15.2222222222222</v>
+      <c r="C27" s="4">
+        <f>AVERAGE(C2:C4,C10:C13,C19:C21)</f>
+        <v>15.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C7 C26" formulaRange="1"/>
+    <ignoredError sqref="C27 C7" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/utils/sxsyzlzq/friends/laowang/zz_lw_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/laowang/zz_lw_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13065" windowHeight="11295" firstSheet="1"/>
+    <workbookView windowWidth="10725" windowHeight="11385" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>名称</t>
   </si>
@@ -41,10 +41,13 @@
     <t>卡等</t>
   </si>
   <si>
+    <t>蓄力射手</t>
+  </si>
+  <si>
     <t>势如破竹</t>
   </si>
   <si>
-    <t>蛮石穿山甲</t>
+    <t>强行捕猎</t>
   </si>
   <si>
     <t>小计：</t>
@@ -98,21 +101,12 @@
     <t>蛮石卡等：</t>
   </si>
   <si>
-    <t>邪眼魔</t>
-  </si>
-  <si>
-    <t>毒液甲虫</t>
-  </si>
-  <si>
     <t>疯狂战意</t>
   </si>
   <si>
     <t>烈焰风暴</t>
   </si>
   <si>
-    <t>恶臭公害</t>
-  </si>
-  <si>
     <t>碎颅魔</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>灼神双炎</t>
   </si>
   <si>
-    <t>血炎鬼魅</t>
-  </si>
-  <si>
     <t>噬心魔虫</t>
   </si>
   <si>
@@ -155,9 +146,6 @@
     <t>血翼·莉莉丝</t>
   </si>
   <si>
-    <t>熔炉梦魇</t>
-  </si>
-  <si>
     <t>炼狱卡等：</t>
   </si>
   <si>
@@ -203,9 +191,21 @@
     <t>禅意卡等：</t>
   </si>
   <si>
+    <t>洞悉之眼</t>
+  </si>
+  <si>
+    <t>方尖魔碑</t>
+  </si>
+  <si>
     <t>沉重否定</t>
   </si>
   <si>
+    <t>全数否定</t>
+  </si>
+  <si>
+    <t>占卜命运</t>
+  </si>
+  <si>
     <t>学仆-能源型</t>
   </si>
   <si>
@@ -218,16 +218,13 @@
     <t>幻域秘树</t>
   </si>
   <si>
+    <t>改造魔卷</t>
+  </si>
+  <si>
     <t>米拉方舟</t>
   </si>
   <si>
     <t>No.2时光·米拉</t>
-  </si>
-  <si>
-    <t>No.6迪宁</t>
-  </si>
-  <si>
-    <t>No.3伊斯多维尔</t>
   </si>
   <si>
     <t>隐秘卡等：</t>
@@ -1196,8 +1193,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1226,29 +1223,29 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1263,20 +1260,20 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C4)</f>
-        <v>20</v>
+        <v>19.3333333333333</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
@@ -1287,7 +1284,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -1298,7 +1295,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -1309,18 +1306,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -1331,18 +1328,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>5</v>
@@ -1363,19 +1360,19 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2">
         <f>AVERAGE(C10:C16)</f>
-        <v>19.7142857142857</v>
+        <v>20.1428571428571</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3">
         <v>3</v>
@@ -1386,7 +1383,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
@@ -1397,35 +1394,35 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3">
         <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3">
         <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1440,26 +1437,26 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C22:C26)</f>
-        <v>17.4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C4,C10:C16,C22:C26)</f>
-        <v>19</v>
+        <v>19.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1471,10 +1468,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1497,110 +1494,110 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <f>AVERAGE(C2:C3)</f>
+        <v>21.5</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>19.6</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C11" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
         <v>20</v>
@@ -1608,190 +1605,135 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>16</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE(C9:C16)</f>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3">
         <v>5</v>
       </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C12:C20)</f>
-        <v>19.2222222222222</v>
+      <c r="C25" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>20</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3">
-        <v>20</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C29" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="3">
-        <v>6</v>
-      </c>
-      <c r="C30" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="3">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3">
-        <v>12</v>
+        <f>AVERAGE(C22:C26)</f>
+        <v>18.6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="3">
-        <f>AVERAGE(C26:C31)</f>
-        <v>17.3333333333333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="4">
-        <f>AVERAGE(C2:C6,C12:C20,C26:C31)</f>
-        <v>18.75</v>
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C3,C9:C16,C22:C26)</f>
+        <v>19.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1748,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="C21 E18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1829,7 +1771,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1840,7 +1782,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1851,18 +1793,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1873,7 +1815,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1884,7 +1826,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1895,7 +1837,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1906,7 +1848,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -1917,7 +1859,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1928,7 +1870,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1939,7 +1881,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
@@ -1960,20 +1902,20 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
         <f>AVERAGE(C2:C12)</f>
-        <v>16.0909090909091</v>
+        <v>16.2727272727273</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -1984,18 +1926,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -2016,19 +1958,19 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C18:C20)</f>
-        <v>18.3333333333333</v>
+        <v>18.6666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2049,10 +1991,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
@@ -2061,14 +2003,14 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C12,C18:C20,C26:C26)</f>
-        <v>16.5333333333333</v>
+        <v>16.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2080,10 +2022,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2106,198 +2048,253 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C9" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <f>AVERAGE(C2:C4)</f>
-        <v>15.6666666666667</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>14.5</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C15" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="2">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C15:C20)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2">
-        <f>AVERAGE(C10:C13)</f>
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="3">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="C26" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="3">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C26:C26)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="3">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3">
-        <f>AVERAGE(C19:C21)</f>
-        <v>14.6666666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="4">
-        <f>AVERAGE(C2:C4,C10:C13,C19:C21)</f>
-        <v>15.4</v>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C9,C15:C20,C26:C26)</f>
+        <v>14.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C27 C7" formulaRange="1"/>
+    <ignoredError sqref="C12 C32" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>